--- a/GTU_RESULT_ANALYSIS.xlsx
+++ b/GTU_RESULT_ANALYSIS.xlsx
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>72.72727272727273</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="10">
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>72.72727272727273</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="11">
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>86.36363636363636</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="13">
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>59.09090909090909</v>
+        <v>59.09</v>
       </c>
     </row>
     <row r="14">
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>59.09090909090909</v>
+        <v>59.09</v>
       </c>
     </row>
     <row r="15">

--- a/GTU_RESULT_ANALYSIS.xlsx
+++ b/GTU_RESULT_ANALYSIS.xlsx
@@ -2238,7 +2238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:N30"/>
+  <dimension ref="A3:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
@@ -2676,29 +2676,6 @@
         <v>59.09</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" t="n">
-        <v/>
-      </c>
-      <c r="C15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G4:H4"/>
@@ -2721,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="E2:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -2739,7 +2716,6 @@
     <col width="31.42578125" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="E2" t="inlineStr">
         <is>
@@ -3176,93 +3152,6 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3332,7 +3221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -3344,108 +3233,7 @@
     <col width="20.42578125" customWidth="1" min="3" max="3"/>
     <col width="15.140625" customWidth="1" min="4" max="4"/>
   </cols>
-  <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3456,7 +3244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -4790,83 +4578,6 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4879,7 +4590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
@@ -6208,83 +5919,6 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6296,7 +5930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
@@ -7625,83 +7259,6 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7713,7 +7270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
@@ -9042,83 +8599,6 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9130,7 +8610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -10242,83 +9722,6 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10330,7 +9733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -11662,83 +11065,6 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11750,7 +11076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -13082,83 +12408,6 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13170,7 +12419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
@@ -13776,83 +13025,6 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GTU_RESULT_ANALYSIS.xlsx
+++ b/GTU_RESULT_ANALYSIS.xlsx
@@ -86,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -123,8 +123,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -139,19 +145,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -185,6 +178,57 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -208,12 +252,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -243,47 +284,53 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,104 +732,104 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.85546875" customWidth="1" style="2" min="1" max="1"/>
-    <col width="8.5703125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="39.28515625" customWidth="1" style="2" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="2" min="4" max="14"/>
-    <col width="2.85546875" customWidth="1" min="15" max="15"/>
-    <col width="5.7109375" customWidth="1" min="16" max="16"/>
-    <col width="10.28515625" customWidth="1" min="17" max="17"/>
-    <col width="5.7109375" customWidth="1" min="18" max="23"/>
-    <col width="7.85546875" customWidth="1" min="24" max="24"/>
-    <col width="8.140625" customWidth="1" min="25" max="25"/>
-    <col width="6.7109375" customWidth="1" min="27" max="27"/>
-    <col width="6.85546875" customWidth="1" min="28" max="28"/>
-    <col width="2.85546875" customWidth="1" min="29" max="29"/>
-    <col width="21.140625" customWidth="1" min="30" max="30"/>
+    <col width="6.85546875" customWidth="1" style="18" min="1" max="1"/>
+    <col width="8.5703125" customWidth="1" style="18" min="2" max="2"/>
+    <col width="39.28515625" customWidth="1" style="18" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="18" min="4" max="14"/>
+    <col width="2.85546875" customWidth="1" style="16" min="15" max="15"/>
+    <col width="5.7109375" customWidth="1" style="16" min="16" max="16"/>
+    <col width="10.28515625" customWidth="1" style="16" min="17" max="17"/>
+    <col width="5.7109375" customWidth="1" style="16" min="18" max="23"/>
+    <col width="7.85546875" customWidth="1" style="16" min="24" max="24"/>
+    <col width="8.140625" customWidth="1" style="16" min="25" max="25"/>
+    <col width="6.7109375" customWidth="1" style="16" min="27" max="27"/>
+    <col width="6.85546875" customWidth="1" style="16" min="28" max="28"/>
+    <col width="2.85546875" customWidth="1" style="16" min="29" max="29"/>
+    <col width="21.140625" customWidth="1" style="16" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" ht="36" customHeight="1" s="16">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>DIPL SEM 1 - Regular (DEC 2022)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1">
-      <c r="A2" s="14" t="inlineStr">
+    <row r="2" ht="24" customHeight="1" s="16">
+      <c r="A2" s="19" t="inlineStr">
         <is>
           <t>INSTITUTE_RESULT</t>
         </is>
       </c>
-      <c r="P2" s="16" t="inlineStr">
+      <c r="P2" s="15" t="inlineStr">
         <is>
           <t>UNI_RESULT</t>
         </is>
       </c>
-      <c r="AD2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="2" t="inlineStr">
+      <c r="AD2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="16">
+      <c r="B3" s="18" t="inlineStr">
         <is>
           <t>subcode</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>subjectname</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="D3" s="18" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F3" s="18" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="18" t="inlineStr">
         <is>
           <t>BC</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="18" t="inlineStr">
         <is>
           <t>CC</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="18" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" s="18" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K3" s="18" t="inlineStr">
         <is>
           <t>FF</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="L3" s="18" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M3" s="18" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="N3" s="18" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -842,66 +889,66 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="AB3" s="5" t="inlineStr">
+      <c r="AB3" s="4" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="AD3" s="9" t="inlineStr">
+      <c r="AD3" s="8" t="inlineStr">
         <is>
           <t>Coparison</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="18" t="n">
         <v>260</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="18" t="n">
         <v>4300001</v>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="n">
+      <c r="D4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
+      <c r="F4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="18" t="n">
         <v>32</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="18" t="n">
         <v>45</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="18" t="n">
         <v>28.88888888888889</v>
       </c>
       <c r="P4" t="n">
         <v>94</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="3" t="n">
         <v>4300001</v>
       </c>
       <c r="R4" t="n">
@@ -928,69 +975,69 @@
       <c r="Y4" t="n">
         <v>252</v>
       </c>
-      <c r="Z4" s="6" t="n">
+      <c r="Z4" s="5" t="n">
         <v>401</v>
       </c>
       <c r="AA4" t="n">
         <v>149</v>
       </c>
-      <c r="AB4" s="7" t="n">
+      <c r="AB4" s="6" t="n">
         <v>37.1571072319202</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="9">
         <f>N4-AB4</f>
         <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="18" t="n">
         <v>261</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="18" t="n">
         <v>4300002</v>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>Communication Skills with English</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="n">
+      <c r="D5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="n">
+      <c r="J5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="18" t="n">
         <v>45</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="18" t="n">
         <v>66.66666666666667</v>
       </c>
       <c r="P5" t="n">
         <v>95</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="Q5" s="3" t="n">
         <v>4300002</v>
       </c>
       <c r="R5" t="n">
@@ -1017,69 +1064,69 @@
       <c r="Y5" t="n">
         <v>102</v>
       </c>
-      <c r="Z5" s="6" t="n">
+      <c r="Z5" s="5" t="n">
         <v>401</v>
       </c>
       <c r="AA5" t="n">
         <v>299</v>
       </c>
-      <c r="AB5" s="7" t="n">
+      <c r="AB5" s="6" t="n">
         <v>74.56359102244389</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AD5" s="9">
         <f>N5-AB5</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="18" t="n">
         <v>262</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="18" t="n">
         <v>4300005</v>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>Physics</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
+      <c r="D6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="n">
+      <c r="I6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18" t="n">
         <v>32</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="18" t="n">
         <v>45</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N6" s="18" t="n">
         <v>28.88888888888889</v>
       </c>
       <c r="P6" t="n">
         <v>96</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="Q6" s="3" t="n">
         <v>4300005</v>
       </c>
       <c r="R6" t="n">
@@ -1106,69 +1153,69 @@
       <c r="Y6" t="n">
         <v>231</v>
       </c>
-      <c r="Z6" s="6" t="n">
+      <c r="Z6" s="5" t="n">
         <v>401</v>
       </c>
       <c r="AA6" t="n">
         <v>170</v>
       </c>
-      <c r="AB6" s="7" t="n">
+      <c r="AB6" s="6" t="n">
         <v>42.39401496259352</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AD6" s="9">
         <f>N6-AB6</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="18" t="n">
         <v>263</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="18" t="n">
         <v>4300010</v>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>Basics of Information and Communication Technology</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="n">
+      <c r="H7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="18" t="n">
         <v>45</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="18" t="n">
         <v>41</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="N7" s="18" t="n">
         <v>91.11111111111111</v>
       </c>
       <c r="P7" t="n">
         <v>97</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="3" t="n">
         <v>4300010</v>
       </c>
       <c r="R7" t="n">
@@ -1195,69 +1242,69 @@
       <c r="Y7" t="n">
         <v>34</v>
       </c>
-      <c r="Z7" s="6" t="n">
+      <c r="Z7" s="5" t="n">
         <v>401</v>
       </c>
       <c r="AA7" t="n">
         <v>367</v>
       </c>
-      <c r="AB7" s="7" t="n">
+      <c r="AB7" s="6" t="n">
         <v>91.52119700748129</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AD7" s="9">
         <f>N7-AB7</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="18" t="n">
         <v>264</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="18" t="n">
         <v>4300015</v>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>Sports and Yoga</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="n">
+      <c r="D8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="n">
+      <c r="M8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>98</v>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="3" t="n">
         <v>4300015</v>
       </c>
       <c r="R8" t="n">
@@ -1284,66 +1331,66 @@
       <c r="Y8" t="n">
         <v>9</v>
       </c>
-      <c r="Z8" s="6" t="n">
+      <c r="Z8" s="5" t="n">
         <v>9</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
-      <c r="AB8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="10">
+      <c r="AB8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9">
         <f>N8-AB8</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="18" t="n">
         <v>265</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="18" t="n">
         <v>4310002</v>
       </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>Induction Program</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="n">
+      <c r="D9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="18" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>99</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="3" t="n">
         <v>4310002</v>
       </c>
       <c r="R9" t="n">
@@ -1370,67 +1417,67 @@
       <c r="Y9" t="n">
         <v>0</v>
       </c>
-      <c r="Z9" s="6" t="n">
+      <c r="Z9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" s="7" t="n"/>
-      <c r="AD9" s="10">
+      <c r="AB9" s="6" t="n"/>
+      <c r="AD9" s="9">
         <f>N9-AB9</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="18" t="n">
         <v>266</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="18" t="n">
         <v>4311101</v>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>Fundamentals of Electrical Engineering</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
+      <c r="D10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="n">
+      <c r="J10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18" t="n">
         <v>28</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="18" t="n">
         <v>45</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="M10" s="18" t="n">
         <v>17</v>
       </c>
-      <c r="N10" s="2" t="n">
+      <c r="N10" s="18" t="n">
         <v>37.77777777777778</v>
       </c>
       <c r="P10" t="n">
         <v>100</v>
       </c>
-      <c r="Q10" s="4" t="n">
+      <c r="Q10" s="3" t="n">
         <v>4311101</v>
       </c>
       <c r="R10" t="n">
@@ -1457,69 +1504,69 @@
       <c r="Y10" t="n">
         <v>210</v>
       </c>
-      <c r="Z10" s="6" t="n">
+      <c r="Z10" s="5" t="n">
         <v>401</v>
       </c>
       <c r="AA10" t="n">
         <v>191</v>
       </c>
-      <c r="AB10" s="7" t="n">
+      <c r="AB10" s="6" t="n">
         <v>47.63092269326683</v>
       </c>
-      <c r="AD10" s="10">
+      <c r="AD10" s="9">
         <f>N10-AB10</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="18" t="n">
         <v>267</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="18" t="n">
         <v>4311102</v>
       </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Fundamentals of Electronics</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="D11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="n">
+      <c r="H11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18" t="n">
         <v>38</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="18" t="n">
         <v>45</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="M11" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="N11" s="2" t="n">
+      <c r="N11" s="18" t="n">
         <v>15.55555555555556</v>
       </c>
       <c r="P11" t="n">
         <v>101</v>
       </c>
-      <c r="Q11" s="4" t="n">
+      <c r="Q11" s="3" t="n">
         <v>4311102</v>
       </c>
       <c r="R11" t="n">
@@ -1546,71 +1593,71 @@
       <c r="Y11" t="n">
         <v>288</v>
       </c>
-      <c r="Z11" s="6" t="n">
+      <c r="Z11" s="5" t="n">
         <v>401</v>
       </c>
       <c r="AA11" t="n">
         <v>113</v>
       </c>
-      <c r="AB11" s="7" t="n">
+      <c r="AB11" s="6" t="n">
         <v>28.17955112219451</v>
       </c>
-      <c r="AD11" s="10">
+      <c r="AD11" s="9">
         <f>N11-AB11</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="18" t="n">
         <v>304</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="18" t="inlineStr">
         <is>
           <t>C4300001</t>
         </is>
       </c>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="C12" s="10" t="inlineStr">
         <is>
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="D12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="n">
+      <c r="I12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="M12" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="N12" s="18" t="n">
         <v>25</v>
       </c>
       <c r="P12" t="n">
         <v>98</v>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="Q12" s="3" t="inlineStr">
         <is>
           <t>C4300001</t>
         </is>
@@ -1639,71 +1686,71 @@
       <c r="Y12" t="n">
         <v>16</v>
       </c>
-      <c r="Z12" s="6" t="n">
+      <c r="Z12" s="5" t="n">
         <v>47</v>
       </c>
       <c r="AA12" t="n">
         <v>31</v>
       </c>
-      <c r="AB12" s="8" t="n">
+      <c r="AB12" s="7" t="n">
         <v>65.95744680851064</v>
       </c>
-      <c r="AD12" s="10">
+      <c r="AD12" s="9">
         <f>N12-AB12</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="18" t="n">
         <v>305</v>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="18" t="inlineStr">
         <is>
           <t>C4300002</t>
         </is>
       </c>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="C13" s="10" t="inlineStr">
         <is>
           <t>Communication Skills in English</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
+      <c r="D13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="n">
+      <c r="J13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="M13" s="2" t="n">
+      <c r="M13" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="N13" s="2" t="n">
+      <c r="N13" s="18" t="n">
         <v>100</v>
       </c>
       <c r="P13" t="n">
         <v>99</v>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="Q13" s="3" t="inlineStr">
         <is>
           <t>C4300002</t>
         </is>
@@ -1732,71 +1779,71 @@
       <c r="Y13" t="n">
         <v>6</v>
       </c>
-      <c r="Z13" s="6" t="n">
+      <c r="Z13" s="5" t="n">
         <v>47</v>
       </c>
       <c r="AA13" t="n">
         <v>41</v>
       </c>
-      <c r="AB13" s="8" t="n">
+      <c r="AB13" s="7" t="n">
         <v>87.23404255319149</v>
       </c>
-      <c r="AD13" s="10">
+      <c r="AD13" s="9">
         <f>N13-AB13</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="18" t="n">
         <v>306</v>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="18" t="inlineStr">
         <is>
           <t>C4300005</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>Physics</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="n">
+      <c r="D14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="n">
+      <c r="I14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="M14" s="2" t="n">
+      <c r="M14" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="N14" s="2" t="n">
+      <c r="N14" s="18" t="n">
         <v>75</v>
       </c>
       <c r="P14" t="n">
         <v>100</v>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
+      <c r="Q14" s="3" t="inlineStr">
         <is>
           <t>C4300005</t>
         </is>
@@ -1825,71 +1872,71 @@
       <c r="Y14" t="n">
         <v>16</v>
       </c>
-      <c r="Z14" s="6" t="n">
+      <c r="Z14" s="5" t="n">
         <v>47</v>
       </c>
       <c r="AA14" t="n">
         <v>31</v>
       </c>
-      <c r="AB14" s="8" t="n">
+      <c r="AB14" s="7" t="n">
         <v>65.95744680851064</v>
       </c>
-      <c r="AD14" s="10">
+      <c r="AD14" s="9">
         <f>N14-AB14</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="18" t="n">
         <v>307</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="18" t="inlineStr">
         <is>
           <t>C4300010</t>
         </is>
       </c>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="C15" s="10" t="inlineStr">
         <is>
           <t>Basics of Information and Communication Technology</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="n">
+      <c r="E15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="M15" s="2" t="n">
+      <c r="M15" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="N15" s="2" t="n">
+      <c r="N15" s="18" t="n">
         <v>100</v>
       </c>
       <c r="P15" t="n">
         <v>101</v>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="Q15" s="3" t="inlineStr">
         <is>
           <t>C4300010</t>
         </is>
@@ -1918,68 +1965,68 @@
       <c r="Y15" t="n">
         <v>4</v>
       </c>
-      <c r="Z15" s="6" t="n">
+      <c r="Z15" s="5" t="n">
         <v>47</v>
       </c>
       <c r="AA15" t="n">
         <v>43</v>
       </c>
-      <c r="AB15" s="8" t="n">
+      <c r="AB15" s="7" t="n">
         <v>91.48936170212765</v>
       </c>
-      <c r="AD15" s="10">
+      <c r="AD15" s="9">
         <f>N15-AB15</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="18" t="n">
         <v>308</v>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" s="18" t="inlineStr">
         <is>
           <t>C4300015</t>
         </is>
       </c>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Sports and Yoga</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2" t="n">
+      <c r="D16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>102</v>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
+      <c r="Q16" s="3" t="inlineStr">
         <is>
           <t>C4300015</t>
         </is>
@@ -2008,71 +2055,71 @@
       <c r="Y16" t="n">
         <v>1</v>
       </c>
-      <c r="Z16" s="6" t="n">
+      <c r="Z16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
-      <c r="AB16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="10">
+      <c r="AB16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="9">
         <f>N16-AB16</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="18" t="n">
         <v>309</v>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="18" t="inlineStr">
         <is>
           <t>C4311101</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="C17" s="10" t="inlineStr">
         <is>
           <t>Fundamentals of Electrical Engineering</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="D17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="n">
+      <c r="H17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="M17" s="2" t="n">
+      <c r="M17" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="N17" s="2" t="n">
+      <c r="N17" s="18" t="n">
         <v>100</v>
       </c>
       <c r="P17" t="n">
         <v>103</v>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="3" t="inlineStr">
         <is>
           <t>C4311101</t>
         </is>
@@ -2101,71 +2148,71 @@
       <c r="Y17" t="n">
         <v>5</v>
       </c>
-      <c r="Z17" s="6" t="n">
+      <c r="Z17" s="5" t="n">
         <v>47</v>
       </c>
       <c r="AA17" t="n">
         <v>42</v>
       </c>
-      <c r="AB17" s="8" t="n">
+      <c r="AB17" s="7" t="n">
         <v>89.36170212765957</v>
       </c>
-      <c r="AD17" s="10">
+      <c r="AD17" s="9">
         <f>N17-AB17</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="18" t="n">
         <v>310</v>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" s="18" t="inlineStr">
         <is>
           <t>C4311102</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Fundamentals of Electronics</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="n">
+      <c r="D18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="n">
+      <c r="H18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="M18" s="2" t="n">
+      <c r="M18" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="N18" s="2" t="n">
+      <c r="N18" s="18" t="n">
         <v>100</v>
       </c>
       <c r="P18" t="n">
         <v>104</v>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="Q18" s="3" t="inlineStr">
         <is>
           <t>C4311102</t>
         </is>
@@ -2194,22 +2241,22 @@
       <c r="Y18" t="n">
         <v>7</v>
       </c>
-      <c r="Z18" s="6" t="n">
+      <c r="Z18" s="5" t="n">
         <v>47</v>
       </c>
       <c r="AA18" t="n">
         <v>40</v>
       </c>
-      <c r="AB18" s="8" t="n">
+      <c r="AB18" s="7" t="n">
         <v>85.1063829787234</v>
       </c>
-      <c r="AD18" s="10">
+      <c r="AD18" s="9">
         <f>N18-AB18</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="23.25" customHeight="1">
-      <c r="E19" s="3" t="n"/>
+    <row r="19" ht="23.25" customHeight="1" s="16">
+      <c r="E19" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2238,138 +2285,186 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:N14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.42578125" customWidth="1" min="1" max="1"/>
-    <col width="19.85546875" customWidth="1" min="2" max="2"/>
-    <col width="48.42578125" customWidth="1" min="3" max="3"/>
+    <col width="6.42578125" customWidth="1" style="16" min="1" max="1"/>
+    <col width="19.85546875" customWidth="1" style="16" min="2" max="2"/>
+    <col width="48.42578125" customWidth="1" style="16" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="3" ht="27" customHeight="1">
-      <c r="A3" s="17" t="inlineStr">
+    <row r="1" ht="33.75" customHeight="1" s="16">
+      <c r="A1" s="26" t="n">
+        <v>602</v>
+      </c>
+      <c r="B1" s="21" t="n"/>
+      <c r="C1" s="31" t="inlineStr">
+        <is>
+          <t>A. V. Parekh Technical Institute</t>
+        </is>
+      </c>
+      <c r="D1" s="23" t="n"/>
+      <c r="E1" s="23" t="n"/>
+      <c r="F1" s="23" t="n"/>
+      <c r="G1" s="23" t="n"/>
+      <c r="H1" s="23" t="n"/>
+      <c r="I1" s="23" t="n"/>
+      <c r="J1" s="23" t="n"/>
+      <c r="K1" s="23" t="n"/>
+      <c r="L1" s="23" t="n"/>
+      <c r="M1" s="23" t="n"/>
+      <c r="N1" s="21" t="n"/>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" s="16">
+      <c r="A2" s="26" t="inlineStr">
+        <is>
+          <t>DEPARTMENT :</t>
+        </is>
+      </c>
+      <c r="B2" s="21" t="n"/>
+      <c r="C2" s="32" t="inlineStr">
+        <is>
+          <t>ELECTRONICS AND COMMUNICATION ENGINEERING</t>
+        </is>
+      </c>
+      <c r="D2" s="23" t="n"/>
+      <c r="E2" s="23" t="n"/>
+      <c r="F2" s="23" t="n"/>
+      <c r="G2" s="23" t="n"/>
+      <c r="H2" s="23" t="n"/>
+      <c r="I2" s="23" t="n"/>
+      <c r="J2" s="23" t="n"/>
+      <c r="K2" s="23" t="n"/>
+      <c r="L2" s="23" t="n"/>
+      <c r="M2" s="23" t="n"/>
+      <c r="N2" s="21" t="n"/>
+    </row>
+    <row r="3" ht="27" customHeight="1" s="16">
+      <c r="A3" s="24" t="inlineStr">
         <is>
           <t>RESULT</t>
         </is>
       </c>
-      <c r="B3" s="25" t="n"/>
-      <c r="C3" s="25" t="n"/>
-      <c r="D3" s="25" t="n"/>
-      <c r="E3" s="25" t="n"/>
-      <c r="F3" s="26" t="n"/>
-      <c r="G3" s="18" t="inlineStr">
+      <c r="B3" s="23" t="n"/>
+      <c r="C3" s="23" t="n"/>
+      <c r="D3" s="23" t="n"/>
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="21" t="n"/>
+      <c r="G3" s="30" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H3" s="26" t="n"/>
-      <c r="I3" s="18" t="inlineStr">
+      <c r="H3" s="29" t="n"/>
+      <c r="I3" s="30" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="J3" s="26" t="n"/>
-      <c r="K3" s="18" t="inlineStr">
+      <c r="J3" s="29" t="n"/>
+      <c r="K3" s="30" t="inlineStr">
         <is>
           <t>PER</t>
         </is>
       </c>
-      <c r="L3" s="25" t="n"/>
-      <c r="M3" s="26" t="n"/>
-    </row>
-    <row r="4" ht="21" customHeight="1">
-      <c r="A4" s="27" t="inlineStr">
+      <c r="L3" s="28" t="n"/>
+      <c r="M3" s="29" t="n"/>
+      <c r="N3" s="25" t="n"/>
+    </row>
+    <row r="4" ht="21" customHeight="1" s="16">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>DIPL SEM 4 - Regular (MAY 2024)</t>
         </is>
       </c>
-      <c r="B4" s="25" t="n"/>
-      <c r="C4" s="25" t="n"/>
-      <c r="D4" s="25" t="n"/>
-      <c r="E4" s="25" t="n"/>
-      <c r="F4" s="26" t="n"/>
-      <c r="G4" s="27" t="n">
+      <c r="B4" s="23" t="n"/>
+      <c r="C4" s="23" t="n"/>
+      <c r="D4" s="23" t="n"/>
+      <c r="E4" s="23" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="H4" s="26" t="n"/>
-      <c r="I4" s="27" t="n">
+      <c r="H4" s="21" t="n"/>
+      <c r="I4" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="J4" s="26" t="n"/>
-      <c r="K4" s="28" t="n">
+      <c r="J4" s="21" t="n"/>
+      <c r="K4" s="22" t="n">
         <v>40.90909090909091</v>
       </c>
-      <c r="L4" s="25" t="n"/>
-      <c r="M4" s="26" t="n"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="12" t="n"/>
-      <c r="B7" s="13" t="inlineStr">
+      <c r="L4" s="23" t="n"/>
+      <c r="M4" s="21" t="n"/>
+      <c r="N4" s="33" t="n"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1" s="16">
+      <c r="A7" s="11" t="n"/>
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>SUB_CODE</t>
         </is>
       </c>
-      <c r="C7" s="13" t="inlineStr">
+      <c r="C7" s="12" t="inlineStr">
         <is>
           <t>SUB_NAME</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
+      <c r="D7" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E7" s="13" t="inlineStr">
+      <c r="E7" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F7" s="13" t="inlineStr">
+      <c r="F7" s="12" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="H7" s="13" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="I7" s="13" t="inlineStr">
+      <c r="G7" s="12" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="H7" s="12" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="I7" s="12" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
-      <c r="J7" s="13" t="inlineStr">
+      <c r="J7" s="12" t="inlineStr">
         <is>
           <t>BC</t>
         </is>
       </c>
-      <c r="K7" s="13" t="inlineStr">
+      <c r="K7" s="12" t="inlineStr">
         <is>
           <t>CC</t>
         </is>
       </c>
-      <c r="L7" s="13" t="inlineStr">
+      <c r="L7" s="12" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="M7" s="13" t="inlineStr">
+      <c r="M7" s="12" t="inlineStr">
         <is>
           <t>DD</t>
         </is>
       </c>
-      <c r="N7" s="13" t="inlineStr">
+      <c r="N7" s="12" t="inlineStr">
         <is>
           <t>PER</t>
         </is>
@@ -2677,13 +2772,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:N2"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C1:N1"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
   </mergeCells>
@@ -2698,7 +2798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E2:U13"/>
+  <dimension ref="E2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -2706,14 +2806,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.140625" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="19.140625" customWidth="1" min="6" max="6"/>
-    <col width="18.140625" customWidth="1" min="7" max="7"/>
-    <col width="15.140625" customWidth="1" min="9" max="9"/>
-    <col width="34.28515625" customWidth="1" min="10" max="10"/>
-    <col width="12.28515625" customWidth="1" min="12" max="12"/>
-    <col width="31.42578125" customWidth="1" min="13" max="13"/>
+    <col width="16.140625" customWidth="1" style="16" min="3" max="3"/>
+    <col width="25" customWidth="1" style="16" min="4" max="4"/>
+    <col width="19.140625" customWidth="1" style="16" min="6" max="6"/>
+    <col width="18.140625" customWidth="1" style="16" min="7" max="7"/>
+    <col width="15.140625" customWidth="1" style="16" min="9" max="9"/>
+    <col width="34.28515625" customWidth="1" style="16" min="10" max="10"/>
+    <col width="12.28515625" customWidth="1" style="16" min="12" max="12"/>
+    <col width="31.42578125" customWidth="1" style="16" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2953,6 +3053,14 @@
           <t>CHANIYARA KRISA DILIPBHAI</t>
         </is>
       </c>
+      <c r="N6" t="n">
+        <v>226020311005</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>AYAR PRAVINBHAI LAXMANBHAI</t>
+        </is>
+      </c>
       <c r="Q6" t="n">
         <v>226020311020</v>
       </c>
@@ -2995,6 +3103,14 @@
           <t>DETROJA SRUSHTI PARESHBHAI</t>
         </is>
       </c>
+      <c r="N7" t="n">
+        <v>226020311006</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>BHALODI RUTU GIRISHBHAI</t>
+        </is>
+      </c>
       <c r="Q7" t="n">
         <v>226020311038</v>
       </c>
@@ -3037,6 +3153,14 @@
           <t>LIMBAD PRIYANSHU BHAVESHBHAI</t>
         </is>
       </c>
+      <c r="N8" t="n">
+        <v>226020311012</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>BOSAMIYA RACHITA REVANTBHAI</t>
+        </is>
+      </c>
       <c r="Q8" t="n">
         <v>226020311047</v>
       </c>
@@ -3055,6 +3179,22 @@
       </c>
     </row>
     <row r="9">
+      <c r="E9" t="n">
+        <v>226020311014</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CHAUHAN KEYUR AMRISH</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>226020311014</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CHAUHAN KEYUR AMRISH</t>
+        </is>
+      </c>
       <c r="K9" t="n">
         <v>226020311032</v>
       </c>
@@ -3063,6 +3203,14 @@
           <t>NAKUM HARDIK DHIRAJBHAI</t>
         </is>
       </c>
+      <c r="N9" t="n">
+        <v>226020311013</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>CHANIYARA KRISA DILIPBHAI</t>
+        </is>
+      </c>
       <c r="Q9" t="n">
         <v>236028311002</v>
       </c>
@@ -3081,6 +3229,22 @@
       </c>
     </row>
     <row r="10">
+      <c r="E10" t="n">
+        <v>226020311020</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>DETROJA SRUSHTI PARESHBHAI</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>226020311015</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CHAVADIYA KRISHN JIGNESHBHAI</t>
+        </is>
+      </c>
       <c r="K10" t="n">
         <v>226020311038</v>
       </c>
@@ -3089,6 +3253,14 @@
           <t>PATADIYA ROHIT YOGESHBHAI</t>
         </is>
       </c>
+      <c r="N10" t="n">
+        <v>226020311014</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>CHAUHAN KEYUR AMRISH</t>
+        </is>
+      </c>
       <c r="Q10" t="n">
         <v>236028311004</v>
       </c>
@@ -3107,6 +3279,22 @@
       </c>
     </row>
     <row r="11">
+      <c r="E11" t="n">
+        <v>226020311025</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>JETHVA NIL PRADIPBHAI</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>226020311020</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DETROJA SRUSHTI PARESHBHAI</t>
+        </is>
+      </c>
       <c r="K11" t="n">
         <v>226020311049</v>
       </c>
@@ -3115,6 +3303,14 @@
           <t>SACHANIA KARTIK PANKAJBHAI</t>
         </is>
       </c>
+      <c r="N11" t="n">
+        <v>226020311015</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>CHAVADIYA KRISHN JIGNESHBHAI</t>
+        </is>
+      </c>
       <c r="Q11" t="n">
         <v>236028311006</v>
       </c>
@@ -3133,6 +3329,22 @@
       </c>
     </row>
     <row r="12">
+      <c r="E12" t="n">
+        <v>226020311028</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LIMBAD PRIYANSHU BHAVESHBHAI</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>226020311022</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DODIYA DEVANSH MUKESHBHAI</t>
+        </is>
+      </c>
       <c r="K12" t="n">
         <v>236028311004</v>
       </c>
@@ -3141,12 +3353,606 @@
           <t>PODAR PRAKASHKUMAR ASHOKBHAI</t>
         </is>
       </c>
+      <c r="N12" t="n">
+        <v>226020311020</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>DETROJA SRUSHTI PARESHBHAI</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>226020311020</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>DETROJA SRUSHTI PARESHBHAI</t>
+        </is>
+      </c>
     </row>
     <row r="13">
+      <c r="E13" t="n">
+        <v>226020311032</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NAKUM HARDIK DHIRAJBHAI</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>226020311025</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>JETHVA NIL PRADIPBHAI</t>
+        </is>
+      </c>
       <c r="K13" t="n">
         <v>236028311006</v>
       </c>
       <c r="L13" t="inlineStr">
+        <is>
+          <t>VIVEK BHALIYA</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>226020311022</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>DODIYA DEVANSH MUKESHBHAI</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>226020311022</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>DODIYA DEVANSH MUKESHBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="n">
+        <v>226020311033</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NATHJI RUSVANTI JAYSUKHNATH</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>226020311028</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>LIMBAD PRIYANSHU BHAVESHBHAI</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>226020311040</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>RAJPARA DHRUV RAMESHBHAI</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>226020311025</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>JETHVA NIL PRADIPBHAI</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>226020311025</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>JETHVA NIL PRADIPBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="n">
+        <v>226020311034</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ODEDARA ADITI NATHUBHAI</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>226020311033</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NATHJI RUSVANTI JAYSUKHNATH</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>226020311041</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>RAJPARA HET MANISHBHAI</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>226020311028</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>LIMBAD PRIYANSHU BHAVESHBHAI</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>226020311028</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>LIMBAD PRIYANSHU BHAVESHBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="n">
+        <v>226020311038</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PATADIYA ROHIT YOGESHBHAI</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>226020311034</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ODEDARA ADITI NATHUBHAI</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>226020311047</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>RATHOD MEET PRAKASHBHAI</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>226020311032</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>NAKUM HARDIK DHIRAJBHAI</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>226020311032</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>NAKUM HARDIK DHIRAJBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="n">
+        <v>226020311040</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>RAJPARA DHRUV RAMESHBHAI</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>226020311038</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>PATADIYA ROHIT YOGESHBHAI</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>226020311048</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>RATHOD PRUTHVIRAJ MAHENDRABHAI</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>226020311033</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>NATHJI RUSVANTI JAYSUKHNATH</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>226020311033</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>NATHJI RUSVANTI JAYSUKHNATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="n">
+        <v>226020311041</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>RAJPARA HET MANISHBHAI</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>226020311040</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>RAJPARA DHRUV RAMESHBHAI</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>226020311053</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>SOSA AJIT BHARATBHAI</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>226020311034</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>ODEDARA ADITI NATHUBHAI</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>226020311034</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>ODEDARA ADITI NATHUBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="n">
+        <v>226020311048</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>RATHOD PRUTHVIRAJ MAHENDRABHAI</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>226020311041</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>RAJPARA HET MANISHBHAI</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>226020311056</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>VADGAMA HARDIK JAYDEVBHAI</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>226020311038</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>PATADIYA ROHIT YOGESHBHAI</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>226020311038</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>PATADIYA ROHIT YOGESHBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="n">
+        <v>226020311049</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SACHANIA KARTIK PANKAJBHAI</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>226020311053</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SOSA AJIT BHARATBHAI</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>236028311002</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>CHAVDA SHYAM SHANTILAL</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>226020311040</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>RAJPARA DHRUV RAMESHBHAI</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>226020311040</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>RAJPARA DHRUV RAMESHBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="n">
+        <v>226020311053</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SOSA AJIT BHARATBHAI</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>226020311056</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>VADGAMA HARDIK JAYDEVBHAI</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>236028311006</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>VIVEK BHALIYA</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>226020311041</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>RAJPARA HET MANISHBHAI</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>226020311047</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>RATHOD MEET PRAKASHBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="n">
+        <v>226020311056</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>VADGAMA HARDIK JAYDEVBHAI</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>236028311002</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CHAVDA SHYAM SHANTILAL</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>226020311047</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>RATHOD MEET PRAKASHBHAI</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>226020311048</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>RATHOD PRUTHVIRAJ MAHENDRABHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="n">
+        <v>236028311002</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>CHAVDA SHYAM SHANTILAL</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>236028311004</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>PODAR PRAKASHKUMAR ASHOKBHAI</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>226020311048</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>RATHOD PRUTHVIRAJ MAHENDRABHAI</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>226020311049</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>SACHANIA KARTIK PANKAJBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="n">
+        <v>236028311004</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PODAR PRAKASHKUMAR ASHOKBHAI</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>236028311006</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>VIVEK BHALIYA</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>226020311049</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>SACHANIA KARTIK PANKAJBHAI</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>226020311053</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>SOSA AJIT BHARATBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="n">
+        <v>236028311006</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>VIVEK BHALIYA</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>226020311053</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>SOSA AJIT BHARATBHAI</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>226020311056</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>VADGAMA HARDIK JAYDEVBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="N26" t="n">
+        <v>226020311056</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>VADGAMA HARDIK JAYDEVBHAI</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>226020311061</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>VORA SARTH JAYESHBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="N27" t="n">
+        <v>236028311002</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>CHAVDA SHYAM SHANTILAL</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>236028311002</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>CHAVDA SHYAM SHANTILAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="N28" t="n">
+        <v>236028311003</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>PARMAR DHRUV ASHOKBHAI</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>236028311004</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>PODAR PRAKASHKUMAR ASHOKBHAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="N29" t="n">
+        <v>236028311004</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>PODAR PRAKASHKUMAR ASHOKBHAI</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>236028311006</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>VIVEK BHALIYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="N30" t="n">
+        <v>236028311006</v>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>VIVEK BHALIYA</t>
         </is>
@@ -3171,14 +3977,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="41.5703125" customWidth="1" min="4" max="4"/>
-    <col width="16.85546875" customWidth="1" min="14" max="14"/>
-    <col width="7.5703125" customWidth="1" min="15" max="15"/>
+    <col width="41.5703125" customWidth="1" style="16" min="4" max="4"/>
+    <col width="16.85546875" customWidth="1" style="16" min="14" max="14"/>
+    <col width="7.5703125" customWidth="1" style="16" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
+      <c r="O1" s="18" t="n"/>
+      <c r="P1" s="18" t="n"/>
     </row>
     <row r="2">
       <c r="P2" s="1" t="n"/>
@@ -3229,9 +4035,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.28515625" customWidth="1" style="6" min="2" max="2"/>
-    <col width="20.42578125" customWidth="1" min="3" max="3"/>
-    <col width="15.140625" customWidth="1" min="4" max="4"/>
+    <col width="15.28515625" customWidth="1" style="5" min="2" max="2"/>
+    <col width="20.42578125" customWidth="1" style="16" min="3" max="3"/>
+    <col width="15.140625" customWidth="1" style="16" min="4" max="4"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3252,9 +4058,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.28515625" customWidth="1" style="6" min="2" max="2"/>
-    <col width="14.28515625" customWidth="1" min="3" max="3"/>
-    <col width="19.7109375" customWidth="1" min="5" max="5"/>
+    <col width="16.28515625" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.28515625" customWidth="1" style="16" min="3" max="3"/>
+    <col width="19.7109375" customWidth="1" style="16" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8618,7 +9424,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="45.7109375" customWidth="1" min="5" max="5"/>
+    <col width="45.7109375" customWidth="1" style="16" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9741,7 +10547,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20.28515625" customWidth="1" min="5" max="5"/>
+    <col width="20.28515625" customWidth="1" style="16" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11084,7 +11890,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="47.7109375" customWidth="1" min="5" max="5"/>
+    <col width="47.7109375" customWidth="1" style="16" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12427,7 +13233,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30.28515625" customWidth="1" min="5" max="5"/>
+    <col width="30.28515625" customWidth="1" style="16" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
